--- a/Code/Results/Cases/Case_0_70/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_70/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07918707595685248</v>
+        <v>0.02635514705930575</v>
       </c>
       <c r="D2">
-        <v>0.2876880410359917</v>
+        <v>0.2674911136138434</v>
       </c>
       <c r="E2">
-        <v>0.1939511833596512</v>
+        <v>0.1853224059509699</v>
       </c>
       <c r="F2">
-        <v>0.4289933025296051</v>
+        <v>0.9284568350695821</v>
       </c>
       <c r="G2">
-        <v>0.1743022428009695</v>
+        <v>0.4121690984244708</v>
       </c>
       <c r="H2">
-        <v>0.177949946914687</v>
+        <v>0.5826480381023345</v>
       </c>
       <c r="I2">
-        <v>0.1918461172611607</v>
+        <v>0.4268648828551349</v>
       </c>
       <c r="J2">
-        <v>0.1783572931220476</v>
+        <v>0.1743904219952839</v>
       </c>
       <c r="K2">
-        <v>5.270510685850752</v>
+        <v>1.828067509145853</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6921044648535428</v>
+        <v>1.93774192686999</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06918141656595367</v>
+        <v>0.02311475358142445</v>
       </c>
       <c r="D3">
-        <v>0.2554981882823597</v>
+        <v>0.2590922776626599</v>
       </c>
       <c r="E3">
-        <v>0.1726997204301739</v>
+        <v>0.1804418432915682</v>
       </c>
       <c r="F3">
-        <v>0.4128233495196483</v>
+        <v>0.9362983061392853</v>
       </c>
       <c r="G3">
-        <v>0.1710077396079726</v>
+        <v>0.4191390201237724</v>
       </c>
       <c r="H3">
-        <v>0.1837813040552874</v>
+        <v>0.5906760344763242</v>
       </c>
       <c r="I3">
-        <v>0.1859460147250971</v>
+        <v>0.4319089911625795</v>
       </c>
       <c r="J3">
-        <v>0.15912121042264</v>
+        <v>0.170554697630152</v>
       </c>
       <c r="K3">
-        <v>4.594929469668614</v>
+        <v>1.60584553751039</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6969107031701185</v>
+        <v>1.969035205413377</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06303735239234953</v>
+        <v>0.02111596673712768</v>
       </c>
       <c r="D4">
-        <v>0.235870671485273</v>
+        <v>0.2540132657260159</v>
       </c>
       <c r="E4">
-        <v>0.1598191843074162</v>
+        <v>0.1775288732370797</v>
       </c>
       <c r="F4">
-        <v>0.4043262333395177</v>
+        <v>0.9418380448627346</v>
       </c>
       <c r="G4">
-        <v>0.1700398975078485</v>
+        <v>0.4238785257555975</v>
       </c>
       <c r="H4">
-        <v>0.1880107021520274</v>
+        <v>0.5959741750421301</v>
       </c>
       <c r="I4">
-        <v>0.1831463782411404</v>
+        <v>0.4353982354070176</v>
       </c>
       <c r="J4">
-        <v>0.1475428784749369</v>
+        <v>0.1683040952776551</v>
       </c>
       <c r="K4">
-        <v>4.17991181357803</v>
+        <v>1.468850518247905</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7034470587128112</v>
+        <v>1.989987087726519</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06053271650977621</v>
+        <v>0.02029918221253979</v>
       </c>
       <c r="D5">
-        <v>0.2279033892319831</v>
+        <v>0.2519632894279908</v>
       </c>
       <c r="E5">
-        <v>0.1546089475939709</v>
+        <v>0.1763629303569552</v>
       </c>
       <c r="F5">
-        <v>0.401203790490257</v>
+        <v>0.944277579976081</v>
       </c>
       <c r="G5">
-        <v>0.1698950098677443</v>
+        <v>0.425925187403891</v>
       </c>
       <c r="H5">
-        <v>0.18989031362036</v>
+        <v>0.5982258901971633</v>
       </c>
       <c r="I5">
-        <v>0.1822008251966096</v>
+        <v>0.4369185196431538</v>
       </c>
       <c r="J5">
-        <v>0.1428784434727675</v>
+        <v>0.1674132496256888</v>
       </c>
       <c r="K5">
-        <v>4.010695177646141</v>
+        <v>1.412889922205409</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.706963958714482</v>
+        <v>1.998961104000045</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06011674969965952</v>
+        <v>0.02016342040002428</v>
       </c>
       <c r="D6">
-        <v>0.2265822101110615</v>
+        <v>0.2516240910952945</v>
       </c>
       <c r="E6">
-        <v>0.1537460282809775</v>
+        <v>0.1761706037169688</v>
       </c>
       <c r="F6">
-        <v>0.4007052997859546</v>
+        <v>0.9446936501080003</v>
       </c>
       <c r="G6">
-        <v>0.169885574365253</v>
+        <v>0.4262719850761343</v>
       </c>
       <c r="H6">
-        <v>0.1902116488604122</v>
+        <v>0.598605380843459</v>
       </c>
       <c r="I6">
-        <v>0.1820552836208833</v>
+        <v>0.4371768977107031</v>
       </c>
       <c r="J6">
-        <v>0.142107036400219</v>
+        <v>0.1672669135377163</v>
       </c>
       <c r="K6">
-        <v>3.982590090024473</v>
+        <v>1.403589739590075</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7075981047664897</v>
+        <v>2.000477533725061</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06300357850617644</v>
+        <v>0.02110496039835397</v>
       </c>
       <c r="D7">
-        <v>0.2357631004037728</v>
+        <v>0.2539855387830983</v>
       </c>
       <c r="E7">
-        <v>0.1597487651413729</v>
+        <v>0.1775130633382602</v>
       </c>
       <c r="F7">
-        <v>0.4042827708942838</v>
+        <v>0.9418702085487638</v>
       </c>
       <c r="G7">
-        <v>0.170036953526413</v>
+        <v>0.4239056615164074</v>
       </c>
       <c r="H7">
-        <v>0.1880354283289591</v>
+        <v>0.5960041673207641</v>
       </c>
       <c r="I7">
-        <v>0.1831328503230196</v>
+        <v>0.4354183404097647</v>
       </c>
       <c r="J7">
-        <v>0.1474797603354716</v>
+        <v>0.1682919745568014</v>
       </c>
       <c r="K7">
-        <v>4.177630129869726</v>
+        <v>1.468096351034205</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7034910960918523</v>
+        <v>1.990106350619172</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07573677463012984</v>
+        <v>0.02523978827341011</v>
       </c>
       <c r="D8">
-        <v>0.2765583859393672</v>
+        <v>0.2645791251590168</v>
       </c>
       <c r="E8">
-        <v>0.1865866215585044</v>
+        <v>0.1836222499935829</v>
       </c>
       <c r="F8">
-        <v>0.4231086758143832</v>
+        <v>0.9310099277283257</v>
       </c>
       <c r="G8">
-        <v>0.1729376081419858</v>
+        <v>0.4144766365824637</v>
       </c>
       <c r="H8">
-        <v>0.1798215510697787</v>
+        <v>0.5853394702521513</v>
       </c>
       <c r="I8">
-        <v>0.1896337598214863</v>
+        <v>0.4285225714354368</v>
       </c>
       <c r="J8">
-        <v>0.1716734928833077</v>
+        <v>0.1730461658246227</v>
       </c>
       <c r="K8">
-        <v>5.03758741390476</v>
+        <v>1.751561957448303</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6929877608915262</v>
+        <v>1.948170594909286</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1007391778679221</v>
+        <v>0.03327385993537746</v>
       </c>
       <c r="D9">
-        <v>0.3578140188700729</v>
+        <v>0.2859649617225983</v>
       </c>
       <c r="E9">
-        <v>0.2407203781813436</v>
+        <v>0.1962645314601659</v>
       </c>
       <c r="F9">
-        <v>0.4723216129378542</v>
+        <v>0.9154785840806738</v>
       </c>
       <c r="G9">
-        <v>0.1877461395187439</v>
+        <v>0.3996529154313109</v>
       </c>
       <c r="H9">
-        <v>0.169199006177152</v>
+        <v>0.5673570088165363</v>
       </c>
       <c r="I9">
-        <v>0.2094659239465031</v>
+        <v>0.4181213868384326</v>
       </c>
       <c r="J9">
-        <v>0.221189809355721</v>
+        <v>0.1831992333157473</v>
       </c>
       <c r="K9">
-        <v>6.724421349895977</v>
+        <v>2.302915645758787</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7031314517170273</v>
+        <v>1.879766889370799</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1191851268556405</v>
+        <v>0.03912969255108578</v>
       </c>
       <c r="D10">
-        <v>0.418533135469346</v>
+        <v>0.3020434721404115</v>
       </c>
       <c r="E10">
-        <v>0.2816683565567999</v>
+        <v>0.2059549304365262</v>
       </c>
       <c r="F10">
-        <v>0.5173580639074729</v>
+        <v>0.9076009276289838</v>
       </c>
       <c r="G10">
-        <v>0.2052888881542785</v>
+        <v>0.3910206343484717</v>
       </c>
       <c r="H10">
-        <v>0.1652321779993642</v>
+        <v>0.5559370687278644</v>
       </c>
       <c r="I10">
-        <v>0.2291696537497359</v>
+        <v>0.4123963961665389</v>
       </c>
       <c r="J10">
-        <v>0.2591705119214396</v>
+        <v>0.1911666062996886</v>
       </c>
       <c r="K10">
-        <v>7.967331652386804</v>
+        <v>2.705065989585762</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.7326976120324531</v>
+        <v>1.838003714880259</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1276070432861474</v>
+        <v>0.04178322148938207</v>
       </c>
       <c r="D11">
-        <v>0.4464388594479658</v>
+        <v>0.3094362617532056</v>
       </c>
       <c r="E11">
-        <v>0.300614012831133</v>
+        <v>0.2104504040774486</v>
       </c>
       <c r="F11">
-        <v>0.5401037026347808</v>
+        <v>0.9047883527573219</v>
       </c>
       <c r="G11">
-        <v>0.2149786076560929</v>
+        <v>0.3875890519193135</v>
       </c>
       <c r="H11">
-        <v>0.1643783344898608</v>
+        <v>0.5511319700205064</v>
       </c>
       <c r="I11">
-        <v>0.2394414933887745</v>
+        <v>0.4102111301669211</v>
       </c>
       <c r="J11">
-        <v>0.2768774838535251</v>
+        <v>0.1949019220324431</v>
       </c>
       <c r="K11">
-        <v>8.534360189187169</v>
+        <v>2.887345073472886</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7517520387837919</v>
+        <v>1.820861670184556</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1308018273877707</v>
+        <v>0.04278652420896378</v>
       </c>
       <c r="D12">
-        <v>0.457052328419195</v>
+        <v>0.3122468745402784</v>
       </c>
       <c r="E12">
-        <v>0.3078395105817364</v>
+        <v>0.2121652238803406</v>
       </c>
       <c r="F12">
-        <v>0.5490711727035844</v>
+        <v>0.9038344834192316</v>
       </c>
       <c r="G12">
-        <v>0.2189172546755316</v>
+        <v>0.3863612315382241</v>
       </c>
       <c r="H12">
-        <v>0.1642023051191543</v>
+        <v>0.5493685664740866</v>
       </c>
       <c r="I12">
-        <v>0.2435367019487202</v>
+        <v>0.4094441256193662</v>
       </c>
       <c r="J12">
-        <v>0.2836516257556525</v>
+        <v>0.1963323532053778</v>
       </c>
       <c r="K12">
-        <v>8.749384357334179</v>
+        <v>2.956270744208098</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7598455964038777</v>
+        <v>1.814638424017105</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1301135054846583</v>
+        <v>0.04257051386316846</v>
       </c>
       <c r="D13">
-        <v>0.4547643855260333</v>
+        <v>0.311641066879389</v>
       </c>
       <c r="E13">
-        <v>0.3062810028322929</v>
+        <v>0.2117953526970382</v>
       </c>
       <c r="F13">
-        <v>0.5471236231777041</v>
+        <v>0.9040349658738194</v>
       </c>
       <c r="G13">
-        <v>0.2180566235016386</v>
+        <v>0.3866224714487601</v>
       </c>
       <c r="H13">
-        <v>0.1642334879215994</v>
+        <v>0.5497458463568208</v>
       </c>
       <c r="I13">
-        <v>0.2426452973346613</v>
+        <v>0.4096066187224778</v>
       </c>
       <c r="J13">
-        <v>0.2821895091554723</v>
+        <v>0.1960235749881321</v>
       </c>
       <c r="K13">
-        <v>8.703060418744485</v>
+        <v>2.941430860824482</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7580622476504999</v>
+        <v>1.815966770501106</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1278697611356705</v>
+        <v>0.04186579476382235</v>
       </c>
       <c r="D14">
-        <v>0.4473110786792063</v>
+        <v>0.3096672706377035</v>
       </c>
       <c r="E14">
-        <v>0.3012074004049197</v>
+        <v>0.2105912335686426</v>
       </c>
       <c r="F14">
-        <v>0.5408341870475439</v>
+        <v>0.9047076470725983</v>
       </c>
       <c r="G14">
-        <v>0.215297103194068</v>
+        <v>0.3874866000961887</v>
       </c>
       <c r="H14">
-        <v>0.164360836857</v>
+        <v>0.5509857670861535</v>
       </c>
       <c r="I14">
-        <v>0.2397741867741203</v>
+        <v>0.4101468141518865</v>
       </c>
       <c r="J14">
-        <v>0.2774333728839053</v>
+        <v>0.1950192848511421</v>
       </c>
       <c r="K14">
-        <v>8.552043869521412</v>
+        <v>2.893017648252396</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.7523998713132585</v>
+        <v>1.820344300803498</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1264961666140181</v>
+        <v>0.04143393317407629</v>
       </c>
       <c r="D15">
-        <v>0.4427518907697561</v>
+        <v>0.3084597068285007</v>
       </c>
       <c r="E15">
-        <v>0.2981065069001545</v>
+        <v>0.2098552993154996</v>
       </c>
       <c r="F15">
-        <v>0.5370287619634908</v>
+        <v>0.9051341736728062</v>
       </c>
       <c r="G15">
-        <v>0.2136426237998705</v>
+        <v>0.3880252467370013</v>
       </c>
       <c r="H15">
-        <v>0.1644583524351475</v>
+        <v>0.5517525745057696</v>
       </c>
       <c r="I15">
-        <v>0.2380428442067455</v>
+        <v>0.410485586738524</v>
       </c>
       <c r="J15">
-        <v>0.27452929598266</v>
+        <v>0.1944062050137489</v>
       </c>
       <c r="K15">
-        <v>8.459583466643096</v>
+        <v>2.86335007515811</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.7490480808696134</v>
+        <v>1.823060609719562</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1186354512591521</v>
+        <v>0.0389560665064721</v>
       </c>
       <c r="D16">
-        <v>0.4167155950081849</v>
+        <v>0.3015619022394276</v>
       </c>
       <c r="E16">
-        <v>0.280437071587329</v>
+        <v>0.2056628908979334</v>
       </c>
       <c r="F16">
-        <v>0.5159194957320494</v>
+        <v>0.9078002782371186</v>
       </c>
       <c r="G16">
-        <v>0.204692015072645</v>
+        <v>0.3912548990310256</v>
       </c>
       <c r="H16">
-        <v>0.1653079974288971</v>
+        <v>0.5562589488464482</v>
       </c>
       <c r="I16">
-        <v>0.2285261485902801</v>
+        <v>0.4125476622370705</v>
       </c>
       <c r="J16">
-        <v>0.2580225588583431</v>
+        <v>0.1909247264431144</v>
       </c>
       <c r="K16">
-        <v>7.930313453058261</v>
+        <v>2.693139942567882</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.7315711882366429</v>
+        <v>1.839161438401888</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1138218359182162</v>
+        <v>0.0374332989572963</v>
       </c>
       <c r="D17">
-        <v>0.4008196272274347</v>
+        <v>0.2973503255611831</v>
       </c>
       <c r="E17">
-        <v>0.2696826845914373</v>
+        <v>0.2031132866159027</v>
       </c>
       <c r="F17">
-        <v>0.5035683552252337</v>
+        <v>0.9096335507090814</v>
       </c>
       <c r="G17">
-        <v>0.1996551650857441</v>
+        <v>0.3933633429418322</v>
       </c>
       <c r="H17">
-        <v>0.1660800237216336</v>
+        <v>0.5591234072278795</v>
       </c>
       <c r="I17">
-        <v>0.2230350511789538</v>
+        <v>0.4139201871672853</v>
       </c>
       <c r="J17">
-        <v>0.2480111028248189</v>
+        <v>0.1888173596846201</v>
       </c>
       <c r="K17">
-        <v>7.60608653572308</v>
+        <v>2.588549067818633</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.7223348759508355</v>
+        <v>1.849515021074282</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1110559922750696</v>
+        <v>0.03655647490222691</v>
       </c>
       <c r="D18">
-        <v>0.391703105575516</v>
+        <v>0.294935346326497</v>
       </c>
       <c r="E18">
-        <v>0.2635266490844828</v>
+        <v>0.2016550392133141</v>
       </c>
       <c r="F18">
-        <v>0.4966749878632086</v>
+        <v>0.9107605526423015</v>
       </c>
       <c r="G18">
-        <v>0.1969174967307197</v>
+        <v>0.3946226575208414</v>
       </c>
       <c r="H18">
-        <v>0.1666128783530425</v>
+        <v>0.5608076591536459</v>
       </c>
       <c r="I18">
-        <v>0.2199987737010147</v>
+        <v>0.4147490564950154</v>
       </c>
       <c r="J18">
-        <v>0.2422927323194131</v>
+        <v>0.1876156982855264</v>
       </c>
       <c r="K18">
-        <v>7.419747987573203</v>
+        <v>2.52832919429369</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7175453161094794</v>
+        <v>1.855644776978323</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1101199755658513</v>
+        <v>0.03625943245916119</v>
       </c>
       <c r="D19">
-        <v>0.3886207905746062</v>
+        <v>0.2941189536696243</v>
       </c>
       <c r="E19">
-        <v>0.2614472467850391</v>
+        <v>0.2011627151062569</v>
       </c>
       <c r="F19">
-        <v>0.4943763336165645</v>
+        <v>0.9111545871980127</v>
       </c>
       <c r="G19">
-        <v>0.1960172550614914</v>
+        <v>0.3950570293104789</v>
       </c>
       <c r="H19">
-        <v>0.1668082355953402</v>
+        <v>0.5613842160870846</v>
       </c>
       <c r="I19">
-        <v>0.2189911975346739</v>
+        <v>0.415036461850061</v>
       </c>
       <c r="J19">
-        <v>0.2403632431762759</v>
+        <v>0.1872106295490283</v>
       </c>
       <c r="K19">
-        <v>7.356680390558779</v>
+        <v>2.507929271332841</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.716011351401221</v>
+        <v>1.857750168012871</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1143339534231984</v>
+        <v>0.03759550073576179</v>
       </c>
       <c r="D20">
-        <v>0.4025090088328795</v>
+        <v>0.297797889651946</v>
       </c>
       <c r="E20">
-        <v>0.270824405561946</v>
+        <v>0.2033838463436481</v>
       </c>
       <c r="F20">
-        <v>0.504861143804213</v>
+        <v>0.9094308845189474</v>
       </c>
       <c r="G20">
-        <v>0.2001746844056242</v>
+        <v>0.393134070166731</v>
       </c>
       <c r="H20">
-        <v>0.1659885748277219</v>
+        <v>0.5588146824861226</v>
       </c>
       <c r="I20">
-        <v>0.2236068338856185</v>
+        <v>0.4137699969610438</v>
       </c>
       <c r="J20">
-        <v>0.2490726541833084</v>
+        <v>0.1890406119620565</v>
       </c>
       <c r="K20">
-        <v>7.640585222320396</v>
+        <v>2.599689390494575</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.723263470565584</v>
+        <v>1.848394780656463</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1285286418854952</v>
+        <v>0.04207282977532145</v>
       </c>
       <c r="D21">
-        <v>0.4494989981005801</v>
+        <v>0.3102467219571281</v>
       </c>
       <c r="E21">
-        <v>0.3026962058466083</v>
+        <v>0.2109445743318474</v>
       </c>
       <c r="F21">
-        <v>0.5426716890312449</v>
+        <v>0.9045070440373522</v>
       </c>
       <c r="G21">
-        <v>0.2161001347219198</v>
+        <v>0.3872308367617094</v>
       </c>
       <c r="H21">
-        <v>0.1643193453798872</v>
+        <v>0.5506200465857702</v>
       </c>
       <c r="I21">
-        <v>0.2406117804952572</v>
+        <v>0.4099865015161583</v>
       </c>
       <c r="J21">
-        <v>0.2788284358533417</v>
+        <v>0.1953138363941775</v>
       </c>
       <c r="K21">
-        <v>8.59639228998401</v>
+        <v>2.907240516489026</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7540386175064953</v>
+        <v>1.819051229446416</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1378388633370662</v>
+        <v>0.04499007695868329</v>
       </c>
       <c r="D22">
-        <v>0.4804815847431314</v>
+        <v>0.3184475095926018</v>
       </c>
       <c r="E22">
-        <v>0.3238274607629918</v>
+        <v>0.2159586680042338</v>
       </c>
       <c r="F22">
-        <v>0.5694627885659074</v>
+        <v>0.9019372876199867</v>
       </c>
       <c r="G22">
-        <v>0.2280905558938855</v>
+        <v>0.3837905319907264</v>
       </c>
       <c r="H22">
-        <v>0.164092482168293</v>
+        <v>0.5455919103711082</v>
       </c>
       <c r="I22">
-        <v>0.252932176138323</v>
+        <v>0.4078665708222218</v>
       </c>
       <c r="J22">
-        <v>0.298680858561184</v>
+        <v>0.1995067084435789</v>
       </c>
       <c r="K22">
-        <v>9.222868879081773</v>
+        <v>3.107661209186745</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.779307268131447</v>
+        <v>1.801436593587695</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1328663793878349</v>
+        <v>0.0434339213552164</v>
       </c>
       <c r="D23">
-        <v>0.463918856955587</v>
+        <v>0.3140647282847624</v>
       </c>
       <c r="E23">
-        <v>0.3125198498449464</v>
+        <v>0.2132759198970007</v>
       </c>
       <c r="F23">
-        <v>0.5549632861344236</v>
+        <v>0.9032493937534269</v>
       </c>
       <c r="G23">
-        <v>0.2215380378134455</v>
+        <v>0.3855883191837606</v>
       </c>
       <c r="H23">
-        <v>0.1641307958147706</v>
+        <v>0.54824551338276</v>
       </c>
       <c r="I23">
-        <v>0.2462400850309621</v>
+        <v>0.4089656548414737</v>
       </c>
       <c r="J23">
-        <v>0.2880456534754217</v>
+        <v>0.1972603887279689</v>
       </c>
       <c r="K23">
-        <v>8.888317152038212</v>
+        <v>3.000747582457223</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7653239879971494</v>
+        <v>1.810694456510006</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.114102420302288</v>
+        <v>0.03752217355946641</v>
       </c>
       <c r="D24">
-        <v>0.4017451704010284</v>
+        <v>0.2975955262523371</v>
       </c>
       <c r="E24">
-        <v>0.2703081504256559</v>
+        <v>0.2032615027566536</v>
       </c>
       <c r="F24">
-        <v>0.5042760300729583</v>
+        <v>0.9095222824460976</v>
       </c>
       <c r="G24">
-        <v>0.1999393190856935</v>
+        <v>0.3932375775756469</v>
       </c>
       <c r="H24">
-        <v>0.1660296424297059</v>
+        <v>0.5589541403364393</v>
       </c>
       <c r="I24">
-        <v>0.2233479564912351</v>
+        <v>0.4138377740395676</v>
       </c>
       <c r="J24">
-        <v>0.2485926110149421</v>
+        <v>0.1889396487962642</v>
       </c>
       <c r="K24">
-        <v>7.624988172485246</v>
+        <v>2.594653128088339</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7228420370312563</v>
+        <v>1.84890068901953</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09396625330332142</v>
+        <v>0.03110854235949034</v>
       </c>
       <c r="D25">
-        <v>0.3356725076454552</v>
+        <v>0.2801147162765716</v>
       </c>
       <c r="E25">
-        <v>0.2258890322396283</v>
+        <v>0.1927737310386419</v>
       </c>
       <c r="F25">
-        <v>0.4575543493631145</v>
+        <v>0.9190610700407973</v>
       </c>
       <c r="G25">
-        <v>0.1826540408890338</v>
+        <v>0.4032681602355623</v>
       </c>
       <c r="H25">
-        <v>0.1714364311329817</v>
+        <v>0.5719074448379331</v>
       </c>
       <c r="I25">
-        <v>0.203261439266921</v>
+        <v>0.42059957627351</v>
       </c>
       <c r="J25">
-        <v>0.2075389854635148</v>
+        <v>0.1803634979509923</v>
       </c>
       <c r="K25">
-        <v>6.267713583383454</v>
+        <v>2.154261976678924</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6967611183678031</v>
+        <v>1.896784796157604</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_70/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_70/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02635514705930575</v>
+        <v>0.07918707595685248</v>
       </c>
       <c r="D2">
-        <v>0.2674911136138434</v>
+        <v>0.2876880410359774</v>
       </c>
       <c r="E2">
-        <v>0.1853224059509699</v>
+        <v>0.1939511833596441</v>
       </c>
       <c r="F2">
-        <v>0.9284568350695821</v>
+        <v>0.4289933025296122</v>
       </c>
       <c r="G2">
-        <v>0.4121690984244708</v>
+        <v>0.1743022428009127</v>
       </c>
       <c r="H2">
-        <v>0.5826480381023345</v>
+        <v>0.177949946914687</v>
       </c>
       <c r="I2">
-        <v>0.4268648828551349</v>
+        <v>0.1918461172611607</v>
       </c>
       <c r="J2">
-        <v>0.1743904219952839</v>
+        <v>0.1783572931220689</v>
       </c>
       <c r="K2">
-        <v>1.828067509145853</v>
+        <v>5.270510685850752</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.93774192686999</v>
+        <v>0.6921044648535428</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02311475358142445</v>
+        <v>0.06918141656602472</v>
       </c>
       <c r="D3">
-        <v>0.2590922776626599</v>
+        <v>0.2554981882823455</v>
       </c>
       <c r="E3">
-        <v>0.1804418432915682</v>
+        <v>0.1726997204301668</v>
       </c>
       <c r="F3">
-        <v>0.9362983061392853</v>
+        <v>0.4128233495196199</v>
       </c>
       <c r="G3">
-        <v>0.4191390201237724</v>
+        <v>0.1710077396079797</v>
       </c>
       <c r="H3">
-        <v>0.5906760344763242</v>
+        <v>0.1837813040552803</v>
       </c>
       <c r="I3">
-        <v>0.4319089911625795</v>
+        <v>0.1859460147250935</v>
       </c>
       <c r="J3">
-        <v>0.170554697630152</v>
+        <v>0.1591212104227253</v>
       </c>
       <c r="K3">
-        <v>1.60584553751039</v>
+        <v>4.594929469668671</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.969035205413377</v>
+        <v>0.6969107031700759</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02111596673712768</v>
+        <v>0.06303735239234953</v>
       </c>
       <c r="D4">
-        <v>0.2540132657260159</v>
+        <v>0.2358706714851877</v>
       </c>
       <c r="E4">
-        <v>0.1775288732370797</v>
+        <v>0.1598191843074446</v>
       </c>
       <c r="F4">
-        <v>0.9418380448627346</v>
+        <v>0.4043262333395106</v>
       </c>
       <c r="G4">
-        <v>0.4238785257555975</v>
+        <v>0.1700398975078912</v>
       </c>
       <c r="H4">
-        <v>0.5959741750421301</v>
+        <v>0.1880107021521411</v>
       </c>
       <c r="I4">
-        <v>0.4353982354070176</v>
+        <v>0.1831463782411298</v>
       </c>
       <c r="J4">
-        <v>0.1683040952776551</v>
+        <v>0.1475428784749226</v>
       </c>
       <c r="K4">
-        <v>1.468850518247905</v>
+        <v>4.179911813578087</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.989987087726519</v>
+        <v>0.7034470587127828</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02029918221253979</v>
+        <v>0.06053271650977621</v>
       </c>
       <c r="D5">
-        <v>0.2519632894279908</v>
+        <v>0.2279033892319831</v>
       </c>
       <c r="E5">
-        <v>0.1763629303569552</v>
+        <v>0.1546089475939993</v>
       </c>
       <c r="F5">
-        <v>0.944277579976081</v>
+        <v>0.401203790490257</v>
       </c>
       <c r="G5">
-        <v>0.425925187403891</v>
+        <v>0.1698950098676875</v>
       </c>
       <c r="H5">
-        <v>0.5982258901971633</v>
+        <v>0.18989031362036</v>
       </c>
       <c r="I5">
-        <v>0.4369185196431538</v>
+        <v>0.1822008251965919</v>
       </c>
       <c r="J5">
-        <v>0.1674132496256888</v>
+        <v>0.1428784434727532</v>
       </c>
       <c r="K5">
-        <v>1.412889922205409</v>
+        <v>4.010695177646141</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.998961104000045</v>
+        <v>0.7069639587144252</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02016342040002428</v>
+        <v>0.06011674970012137</v>
       </c>
       <c r="D6">
-        <v>0.2516240910952945</v>
+        <v>0.2265822101107915</v>
       </c>
       <c r="E6">
-        <v>0.1761706037169688</v>
+        <v>0.1537460282809668</v>
       </c>
       <c r="F6">
-        <v>0.9446936501080003</v>
+        <v>0.4007052997859475</v>
       </c>
       <c r="G6">
-        <v>0.4262719850761343</v>
+        <v>0.1698855743653169</v>
       </c>
       <c r="H6">
-        <v>0.598605380843459</v>
+        <v>0.1902116488605259</v>
       </c>
       <c r="I6">
-        <v>0.4371768977107031</v>
+        <v>0.1820552836208833</v>
       </c>
       <c r="J6">
-        <v>0.1672669135377163</v>
+        <v>0.1421070364001977</v>
       </c>
       <c r="K6">
-        <v>1.403589739590075</v>
+        <v>3.98259009002436</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.000477533725061</v>
+        <v>0.7075981047664328</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02110496039835397</v>
+        <v>0.06300357850570748</v>
       </c>
       <c r="D7">
-        <v>0.2539855387830983</v>
+        <v>0.2357631004037586</v>
       </c>
       <c r="E7">
-        <v>0.1775130633382602</v>
+        <v>0.1597487651413658</v>
       </c>
       <c r="F7">
-        <v>0.9418702085487638</v>
+        <v>0.4042827708942909</v>
       </c>
       <c r="G7">
-        <v>0.4239056615164074</v>
+        <v>0.170036953526413</v>
       </c>
       <c r="H7">
-        <v>0.5960041673207641</v>
+        <v>0.1880354283290728</v>
       </c>
       <c r="I7">
-        <v>0.4354183404097647</v>
+        <v>0.1831328503230054</v>
       </c>
       <c r="J7">
-        <v>0.1682919745568014</v>
+        <v>0.1474797603355285</v>
       </c>
       <c r="K7">
-        <v>1.468096351034205</v>
+        <v>4.177630129869783</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.990106350619172</v>
+        <v>0.7034910960918666</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02523978827341011</v>
+        <v>0.07573677463031459</v>
       </c>
       <c r="D8">
-        <v>0.2645791251590168</v>
+        <v>0.2765583859394951</v>
       </c>
       <c r="E8">
-        <v>0.1836222499935829</v>
+        <v>0.1865866215585257</v>
       </c>
       <c r="F8">
-        <v>0.9310099277283257</v>
+        <v>0.4231086758143761</v>
       </c>
       <c r="G8">
-        <v>0.4144766365824637</v>
+        <v>0.1729376081419645</v>
       </c>
       <c r="H8">
-        <v>0.5853394702521513</v>
+        <v>0.1798215510697787</v>
       </c>
       <c r="I8">
-        <v>0.4285225714354368</v>
+        <v>0.1896337598214863</v>
       </c>
       <c r="J8">
-        <v>0.1730461658246227</v>
+        <v>0.1716734928831514</v>
       </c>
       <c r="K8">
-        <v>1.751561957448303</v>
+        <v>5.03758741390476</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.948170594909286</v>
+        <v>0.692987760891512</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03327385993537746</v>
+        <v>0.1007391778677658</v>
       </c>
       <c r="D9">
-        <v>0.2859649617225983</v>
+        <v>0.3578140188703145</v>
       </c>
       <c r="E9">
-        <v>0.1962645314601659</v>
+        <v>0.2407203781813507</v>
       </c>
       <c r="F9">
-        <v>0.9154785840806738</v>
+        <v>0.4723216129378258</v>
       </c>
       <c r="G9">
-        <v>0.3996529154313109</v>
+        <v>0.1877461395187581</v>
       </c>
       <c r="H9">
-        <v>0.5673570088165363</v>
+        <v>0.1691990061771591</v>
       </c>
       <c r="I9">
-        <v>0.4181213868384326</v>
+        <v>0.2094659239465031</v>
       </c>
       <c r="J9">
-        <v>0.1831992333157473</v>
+        <v>0.2211898093556783</v>
       </c>
       <c r="K9">
-        <v>2.302915645758787</v>
+        <v>6.724421349896033</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.879766889370799</v>
+        <v>0.7031314517170415</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03912969255108578</v>
+        <v>0.1191851268557826</v>
       </c>
       <c r="D10">
-        <v>0.3020434721404115</v>
+        <v>0.4185331354693176</v>
       </c>
       <c r="E10">
-        <v>0.2059549304365262</v>
+        <v>0.2816683565567857</v>
       </c>
       <c r="F10">
-        <v>0.9076009276289838</v>
+        <v>0.5173580639075013</v>
       </c>
       <c r="G10">
-        <v>0.3910206343484717</v>
+        <v>0.2052888881542927</v>
       </c>
       <c r="H10">
-        <v>0.5559370687278644</v>
+        <v>0.1652321779994921</v>
       </c>
       <c r="I10">
-        <v>0.4123963961665389</v>
+        <v>0.2291696537497501</v>
       </c>
       <c r="J10">
-        <v>0.1911666062996886</v>
+        <v>0.2591705119214822</v>
       </c>
       <c r="K10">
-        <v>2.705065989585762</v>
+        <v>7.967331652386804</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.838003714880259</v>
+        <v>0.7326976120324673</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04178322148938207</v>
+        <v>0.1276070432859342</v>
       </c>
       <c r="D11">
-        <v>0.3094362617532056</v>
+        <v>0.4464388594479658</v>
       </c>
       <c r="E11">
-        <v>0.2104504040774486</v>
+        <v>0.3006140128311117</v>
       </c>
       <c r="F11">
-        <v>0.9047883527573219</v>
+        <v>0.5401037026348021</v>
       </c>
       <c r="G11">
-        <v>0.3875890519193135</v>
+        <v>0.2149786076560787</v>
       </c>
       <c r="H11">
-        <v>0.5511319700205064</v>
+        <v>0.1643783344898608</v>
       </c>
       <c r="I11">
-        <v>0.4102111301669211</v>
+        <v>0.2394414933887745</v>
       </c>
       <c r="J11">
-        <v>0.1949019220324431</v>
+        <v>0.2768774838535109</v>
       </c>
       <c r="K11">
-        <v>2.887345073472886</v>
+        <v>8.534360189187339</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.820861670184556</v>
+        <v>0.7517520387837777</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04278652420896378</v>
+        <v>0.1308018273877849</v>
       </c>
       <c r="D12">
-        <v>0.3122468745402784</v>
+        <v>0.4570523284191665</v>
       </c>
       <c r="E12">
-        <v>0.2121652238803406</v>
+        <v>0.3078395105817151</v>
       </c>
       <c r="F12">
-        <v>0.9038344834192316</v>
+        <v>0.5490711727035844</v>
       </c>
       <c r="G12">
-        <v>0.3863612315382241</v>
+        <v>0.2189172546754676</v>
       </c>
       <c r="H12">
-        <v>0.5493685664740866</v>
+        <v>0.1642023051190407</v>
       </c>
       <c r="I12">
-        <v>0.4094441256193662</v>
+        <v>0.2435367019487344</v>
       </c>
       <c r="J12">
-        <v>0.1963323532053778</v>
+        <v>0.2836516257556099</v>
       </c>
       <c r="K12">
-        <v>2.956270744208098</v>
+        <v>8.749384357334236</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.814638424017105</v>
+        <v>0.7598455964038777</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.04257051386316846</v>
+        <v>0.1301135054846583</v>
       </c>
       <c r="D13">
-        <v>0.311641066879389</v>
+        <v>0.454764385525948</v>
       </c>
       <c r="E13">
-        <v>0.2117953526970382</v>
+        <v>0.3062810028323213</v>
       </c>
       <c r="F13">
-        <v>0.9040349658738194</v>
+        <v>0.5471236231777254</v>
       </c>
       <c r="G13">
-        <v>0.3866224714487601</v>
+        <v>0.2180566235016244</v>
       </c>
       <c r="H13">
-        <v>0.5497458463568208</v>
+        <v>0.1642334879215994</v>
       </c>
       <c r="I13">
-        <v>0.4096066187224778</v>
+        <v>0.2426452973346684</v>
       </c>
       <c r="J13">
-        <v>0.1960235749881321</v>
+        <v>0.2821895091555149</v>
       </c>
       <c r="K13">
-        <v>2.941430860824482</v>
+        <v>8.703060418744371</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.815966770501106</v>
+        <v>0.7580622476504999</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.04186579476382235</v>
+        <v>0.1278697611359263</v>
       </c>
       <c r="D14">
-        <v>0.3096672706377035</v>
+        <v>0.4473110786792063</v>
       </c>
       <c r="E14">
-        <v>0.2105912335686426</v>
+        <v>0.3012074004049055</v>
       </c>
       <c r="F14">
-        <v>0.9047076470725983</v>
+        <v>0.5408341870475297</v>
       </c>
       <c r="G14">
-        <v>0.3874866000961887</v>
+        <v>0.2152971031940041</v>
       </c>
       <c r="H14">
-        <v>0.5509857670861535</v>
+        <v>0.1643608368569929</v>
       </c>
       <c r="I14">
-        <v>0.4101468141518865</v>
+        <v>0.2397741867741203</v>
       </c>
       <c r="J14">
-        <v>0.1950192848511421</v>
+        <v>0.2774333728839196</v>
       </c>
       <c r="K14">
-        <v>2.893017648252396</v>
+        <v>8.552043869521526</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.820344300803498</v>
+        <v>0.7523998713132585</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04143393317407629</v>
+        <v>0.1264961666141033</v>
       </c>
       <c r="D15">
-        <v>0.3084597068285007</v>
+        <v>0.442751890769955</v>
       </c>
       <c r="E15">
-        <v>0.2098552993154996</v>
+        <v>0.2981065069001616</v>
       </c>
       <c r="F15">
-        <v>0.9051341736728062</v>
+        <v>0.5370287619634695</v>
       </c>
       <c r="G15">
-        <v>0.3880252467370013</v>
+        <v>0.2136426237998634</v>
       </c>
       <c r="H15">
-        <v>0.5517525745057696</v>
+        <v>0.1644583524351404</v>
       </c>
       <c r="I15">
-        <v>0.410485586738524</v>
+        <v>0.2380428442067455</v>
       </c>
       <c r="J15">
-        <v>0.1944062050137489</v>
+        <v>0.2745292959826457</v>
       </c>
       <c r="K15">
-        <v>2.86335007515811</v>
+        <v>8.459583466643153</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.823060609719562</v>
+        <v>0.7490480808696418</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0389560665064721</v>
+        <v>0.1186354512592089</v>
       </c>
       <c r="D16">
-        <v>0.3015619022394276</v>
+        <v>0.4167155950082702</v>
       </c>
       <c r="E16">
-        <v>0.2056628908979334</v>
+        <v>0.2804370715873077</v>
       </c>
       <c r="F16">
-        <v>0.9078002782371186</v>
+        <v>0.5159194957320494</v>
       </c>
       <c r="G16">
-        <v>0.3912548990310256</v>
+        <v>0.2046920150725882</v>
       </c>
       <c r="H16">
-        <v>0.5562589488464482</v>
+        <v>0.1653079974288971</v>
       </c>
       <c r="I16">
-        <v>0.4125476622370705</v>
+        <v>0.2285261485902801</v>
       </c>
       <c r="J16">
-        <v>0.1909247264431144</v>
+        <v>0.2580225588582294</v>
       </c>
       <c r="K16">
-        <v>2.693139942567882</v>
+        <v>7.930313453058318</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.839161438401888</v>
+        <v>0.7315711882365861</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0374332989572963</v>
+        <v>0.1138218359184151</v>
       </c>
       <c r="D17">
-        <v>0.2973503255611831</v>
+        <v>0.4008196272272073</v>
       </c>
       <c r="E17">
-        <v>0.2031132866159027</v>
+        <v>0.2696826845914089</v>
       </c>
       <c r="F17">
-        <v>0.9096335507090814</v>
+        <v>0.5035683552252337</v>
       </c>
       <c r="G17">
-        <v>0.3933633429418322</v>
+        <v>0.1996551650858009</v>
       </c>
       <c r="H17">
-        <v>0.5591234072278795</v>
+        <v>0.1660800237216264</v>
       </c>
       <c r="I17">
-        <v>0.4139201871672853</v>
+        <v>0.2230350511789716</v>
       </c>
       <c r="J17">
-        <v>0.1888173596846201</v>
+        <v>0.2480111028248189</v>
       </c>
       <c r="K17">
-        <v>2.588549067818633</v>
+        <v>7.606086535723136</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.849515021074282</v>
+        <v>0.7223348759508355</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03655647490222691</v>
+        <v>0.1110559922748564</v>
       </c>
       <c r="D18">
-        <v>0.294935346326497</v>
+        <v>0.3917031055754023</v>
       </c>
       <c r="E18">
-        <v>0.2016550392133141</v>
+        <v>0.2635266490844828</v>
       </c>
       <c r="F18">
-        <v>0.9107605526423015</v>
+        <v>0.4966749878632086</v>
       </c>
       <c r="G18">
-        <v>0.3946226575208414</v>
+        <v>0.1969174967307765</v>
       </c>
       <c r="H18">
-        <v>0.5608076591536459</v>
+        <v>0.1666128783530354</v>
       </c>
       <c r="I18">
-        <v>0.4147490564950154</v>
+        <v>0.2199987737010289</v>
       </c>
       <c r="J18">
-        <v>0.1876156982855264</v>
+        <v>0.2422927323193562</v>
       </c>
       <c r="K18">
-        <v>2.52832919429369</v>
+        <v>7.419747987573203</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.855644776978323</v>
+        <v>0.7175453161094794</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03625943245916119</v>
+        <v>0.1101199755658087</v>
       </c>
       <c r="D19">
-        <v>0.2941189536696243</v>
+        <v>0.3886207905746915</v>
       </c>
       <c r="E19">
-        <v>0.2011627151062569</v>
+        <v>0.2614472467849893</v>
       </c>
       <c r="F19">
-        <v>0.9111545871980127</v>
+        <v>0.4943763336165503</v>
       </c>
       <c r="G19">
-        <v>0.3950570293104789</v>
+        <v>0.1960172550615624</v>
       </c>
       <c r="H19">
-        <v>0.5613842160870846</v>
+        <v>0.1668082355953402</v>
       </c>
       <c r="I19">
-        <v>0.415036461850061</v>
+        <v>0.2189911975346774</v>
       </c>
       <c r="J19">
-        <v>0.1872106295490283</v>
+        <v>0.2403632431762617</v>
       </c>
       <c r="K19">
-        <v>2.507929271332841</v>
+        <v>7.35668039055895</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.857750168012871</v>
+        <v>0.7160113514012068</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03759550073576179</v>
+        <v>0.1143339534231984</v>
       </c>
       <c r="D20">
-        <v>0.297797889651946</v>
+        <v>0.4025090088330785</v>
       </c>
       <c r="E20">
-        <v>0.2033838463436481</v>
+        <v>0.2708244055619176</v>
       </c>
       <c r="F20">
-        <v>0.9094308845189474</v>
+        <v>0.5048611438042059</v>
       </c>
       <c r="G20">
-        <v>0.393134070166731</v>
+        <v>0.2001746844056953</v>
       </c>
       <c r="H20">
-        <v>0.5588146824861226</v>
+        <v>0.1659885748278285</v>
       </c>
       <c r="I20">
-        <v>0.4137699969610438</v>
+        <v>0.2236068338856043</v>
       </c>
       <c r="J20">
-        <v>0.1890406119620565</v>
+        <v>0.2490726541831805</v>
       </c>
       <c r="K20">
-        <v>2.599689390494575</v>
+        <v>7.640585222320283</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.848394780656463</v>
+        <v>0.7232634705655414</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.04207282977532145</v>
+        <v>0.1285286418854952</v>
       </c>
       <c r="D21">
-        <v>0.3102467219571281</v>
+        <v>0.4494989981006654</v>
       </c>
       <c r="E21">
-        <v>0.2109445743318474</v>
+        <v>0.3026962058465799</v>
       </c>
       <c r="F21">
-        <v>0.9045070440373522</v>
+        <v>0.5426716890312306</v>
       </c>
       <c r="G21">
-        <v>0.3872308367617094</v>
+        <v>0.2161001347219198</v>
       </c>
       <c r="H21">
-        <v>0.5506200465857702</v>
+        <v>0.1643193453798872</v>
       </c>
       <c r="I21">
-        <v>0.4099865015161583</v>
+        <v>0.2406117804952572</v>
       </c>
       <c r="J21">
-        <v>0.1953138363941775</v>
+        <v>0.2788284358533559</v>
       </c>
       <c r="K21">
-        <v>2.907240516489026</v>
+        <v>8.596392289984067</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.819051229446416</v>
+        <v>0.7540386175065095</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04499007695868329</v>
+        <v>0.1378388633373788</v>
       </c>
       <c r="D22">
-        <v>0.3184475095926018</v>
+        <v>0.4804815847431314</v>
       </c>
       <c r="E22">
-        <v>0.2159586680042338</v>
+        <v>0.3238274607629847</v>
       </c>
       <c r="F22">
-        <v>0.9019372876199867</v>
+        <v>0.5694627885659003</v>
       </c>
       <c r="G22">
-        <v>0.3837905319907264</v>
+        <v>0.2280905558938926</v>
       </c>
       <c r="H22">
-        <v>0.5455919103711082</v>
+        <v>0.164092482168293</v>
       </c>
       <c r="I22">
-        <v>0.4078665708222218</v>
+        <v>0.252932176138323</v>
       </c>
       <c r="J22">
-        <v>0.1995067084435789</v>
+        <v>0.2986808585611698</v>
       </c>
       <c r="K22">
-        <v>3.107661209186745</v>
+        <v>9.222868879081773</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.801436593587695</v>
+        <v>0.779307268131447</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0434339213552164</v>
+        <v>0.132866379388048</v>
       </c>
       <c r="D23">
-        <v>0.3140647282847624</v>
+        <v>0.4639188569555586</v>
       </c>
       <c r="E23">
-        <v>0.2132759198970007</v>
+        <v>0.3125198498449677</v>
       </c>
       <c r="F23">
-        <v>0.9032493937534269</v>
+        <v>0.5549632861344307</v>
       </c>
       <c r="G23">
-        <v>0.3855883191837606</v>
+        <v>0.2215380378133887</v>
       </c>
       <c r="H23">
-        <v>0.54824551338276</v>
+        <v>0.1641307958147706</v>
       </c>
       <c r="I23">
-        <v>0.4089656548414737</v>
+        <v>0.2462400850309621</v>
       </c>
       <c r="J23">
-        <v>0.1972603887279689</v>
+        <v>0.2880456534755211</v>
       </c>
       <c r="K23">
-        <v>3.000747582457223</v>
+        <v>8.888317152038098</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.810694456510006</v>
+        <v>0.7653239879970926</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03752217355946641</v>
+        <v>0.1141024203022596</v>
       </c>
       <c r="D24">
-        <v>0.2975955262523371</v>
+        <v>0.4017451704010284</v>
       </c>
       <c r="E24">
-        <v>0.2032615027566536</v>
+        <v>0.2703081504256417</v>
       </c>
       <c r="F24">
-        <v>0.9095222824460976</v>
+        <v>0.5042760300729441</v>
       </c>
       <c r="G24">
-        <v>0.3932375775756469</v>
+        <v>0.1999393190856864</v>
       </c>
       <c r="H24">
-        <v>0.5589541403364393</v>
+        <v>0.1660296424295922</v>
       </c>
       <c r="I24">
-        <v>0.4138377740395676</v>
+        <v>0.2233479564912386</v>
       </c>
       <c r="J24">
-        <v>0.1889396487962642</v>
+        <v>0.2485926110149137</v>
       </c>
       <c r="K24">
-        <v>2.594653128088339</v>
+        <v>7.624988172485189</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.84890068901953</v>
+        <v>0.7228420370311994</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03110854235949034</v>
+        <v>0.09396625330356301</v>
       </c>
       <c r="D25">
-        <v>0.2801147162765716</v>
+        <v>0.3356725076453557</v>
       </c>
       <c r="E25">
-        <v>0.1927737310386419</v>
+        <v>0.2258890322396212</v>
       </c>
       <c r="F25">
-        <v>0.9190610700407973</v>
+        <v>0.4575543493631073</v>
       </c>
       <c r="G25">
-        <v>0.4032681602355623</v>
+        <v>0.1826540408890125</v>
       </c>
       <c r="H25">
-        <v>0.5719074448379331</v>
+        <v>0.1714364311328822</v>
       </c>
       <c r="I25">
-        <v>0.42059957627351</v>
+        <v>0.203261439266921</v>
       </c>
       <c r="J25">
-        <v>0.1803634979509923</v>
+        <v>0.2075389854634437</v>
       </c>
       <c r="K25">
-        <v>2.154261976678924</v>
+        <v>6.267713583383625</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.896784796157604</v>
+        <v>0.6967611183678031</v>
       </c>
     </row>
   </sheetData>
